--- a/Copa Kombi Resultados.xlsx
+++ b/Copa Kombi Resultados.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\E25892\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\E25892\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="20490" windowHeight="7005"/>
+    <workbookView xWindow="0" yWindow="1800" windowWidth="20490" windowHeight="7005"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="45">
   <si>
     <t>Nomes</t>
   </si>
@@ -85,6 +85,81 @@
   </si>
   <si>
     <t>Arábia</t>
+  </si>
+  <si>
+    <t>França</t>
+  </si>
+  <si>
+    <t>Austrália</t>
+  </si>
+  <si>
+    <t>Argentina</t>
+  </si>
+  <si>
+    <t>Islândia</t>
+  </si>
+  <si>
+    <t>Peru</t>
+  </si>
+  <si>
+    <t>Dinamarca</t>
+  </si>
+  <si>
+    <t>Croácia</t>
+  </si>
+  <si>
+    <t>Ningéria</t>
+  </si>
+  <si>
+    <t>Costa Rica</t>
+  </si>
+  <si>
+    <t>Sérvia</t>
+  </si>
+  <si>
+    <t>Alemanha</t>
+  </si>
+  <si>
+    <t>México</t>
+  </si>
+  <si>
+    <t>Brasil</t>
+  </si>
+  <si>
+    <t>Suiça</t>
+  </si>
+  <si>
+    <t>Suécia</t>
+  </si>
+  <si>
+    <t>Coréia do sul</t>
+  </si>
+  <si>
+    <t>Bélgica</t>
+  </si>
+  <si>
+    <t>Panamá</t>
+  </si>
+  <si>
+    <t>Túnisia</t>
+  </si>
+  <si>
+    <t>Inglaterra</t>
+  </si>
+  <si>
+    <t>Colômbia</t>
+  </si>
+  <si>
+    <t>Japão</t>
+  </si>
+  <si>
+    <t>Polônia</t>
+  </si>
+  <si>
+    <t>Senegal</t>
+  </si>
+  <si>
+    <t>Pontos</t>
   </si>
 </sst>
 </file>
@@ -100,15 +175,27 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -178,16 +265,38 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -207,6 +316,53 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -489,400 +645,2070 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:T44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="L33" sqref="L33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="24"/>
+      <c r="R1" s="24"/>
+      <c r="S1" s="24"/>
+      <c r="T1" s="24"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" s="24"/>
+      <c r="B2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="4" t="s">
+      <c r="E2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="4" t="s">
+      <c r="H2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="P2" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R2" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="S2" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="6">
-        <v>0</v>
-      </c>
-      <c r="G3" s="7">
-        <v>2</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="6">
-        <v>1</v>
-      </c>
-      <c r="J3" s="7">
-        <v>0</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L3" s="6">
-        <v>2</v>
-      </c>
-      <c r="M3" s="7">
-        <v>1</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="18">
+        <v>0</v>
+      </c>
+      <c r="G3" s="19">
+        <v>2</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1</v>
+      </c>
+      <c r="I3" s="4">
+        <v>1</v>
+      </c>
+      <c r="J3" s="5">
+        <v>0</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0</v>
+      </c>
+      <c r="L3" s="4">
+        <v>2</v>
+      </c>
+      <c r="M3" s="5">
+        <v>1</v>
+      </c>
+      <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="18">
+        <v>3</v>
+      </c>
+      <c r="P3" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>1</v>
+      </c>
+      <c r="R3" s="10">
+        <v>2</v>
+      </c>
+      <c r="S3" s="11">
+        <v>1</v>
+      </c>
+      <c r="T3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="6">
-        <v>0</v>
-      </c>
-      <c r="G4" s="7">
-        <v>3</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" s="6">
-        <v>0</v>
-      </c>
-      <c r="J4" s="7">
-        <v>2</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L4" s="6">
-        <v>1</v>
-      </c>
-      <c r="M4" s="7">
-        <v>3</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="18">
+        <v>0</v>
+      </c>
+      <c r="G4" s="19">
+        <v>3</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1</v>
+      </c>
+      <c r="I4" s="18">
+        <v>0</v>
+      </c>
+      <c r="J4" s="19">
+        <v>2</v>
+      </c>
+      <c r="K4" s="1">
+        <v>1</v>
+      </c>
+      <c r="L4" s="4">
+        <v>1</v>
+      </c>
+      <c r="M4" s="5">
+        <v>3</v>
+      </c>
+      <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="18">
+        <v>3</v>
+      </c>
+      <c r="P4" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>1</v>
+      </c>
+      <c r="R4" s="10">
+        <v>3</v>
+      </c>
+      <c r="S4" s="11">
+        <v>0</v>
+      </c>
+      <c r="T4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="6">
-        <v>2</v>
-      </c>
-      <c r="G5" s="7">
-        <v>1</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L5" s="6">
-        <v>3</v>
-      </c>
-      <c r="M5" s="7">
-        <v>2</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="4">
+        <v>2</v>
+      </c>
+      <c r="G5" s="5">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="4">
+        <v>0</v>
+      </c>
+      <c r="J5" s="5">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0</v>
+      </c>
+      <c r="L5" s="4">
+        <v>3</v>
+      </c>
+      <c r="M5" s="5">
+        <v>2</v>
+      </c>
+      <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="18">
+        <v>3</v>
+      </c>
+      <c r="P5" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>1</v>
+      </c>
+      <c r="R5" s="10">
+        <v>2</v>
+      </c>
+      <c r="S5" s="11">
+        <v>0</v>
+      </c>
+      <c r="T5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="6">
-        <v>1</v>
-      </c>
-      <c r="G6" s="7">
-        <v>2</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L6" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="M6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="N6" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="18">
+        <v>1</v>
+      </c>
+      <c r="G6" s="19">
+        <v>2</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1</v>
+      </c>
+      <c r="I6" s="4">
+        <v>1</v>
+      </c>
+      <c r="J6" s="5">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0</v>
+      </c>
+      <c r="L6" s="4">
+        <v>0</v>
+      </c>
+      <c r="M6" s="5">
+        <v>1</v>
+      </c>
+      <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="18">
+        <v>2</v>
+      </c>
+      <c r="P6" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>1</v>
+      </c>
+      <c r="R6" s="10">
+        <v>2</v>
+      </c>
+      <c r="S6" s="11">
+        <v>0</v>
+      </c>
+      <c r="T6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="6">
-        <v>2</v>
-      </c>
-      <c r="G7" s="7">
-        <v>0</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I7" s="6">
-        <v>2</v>
-      </c>
-      <c r="J7" s="7">
-        <v>1</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L7" s="6">
-        <v>1</v>
-      </c>
-      <c r="M7" s="7">
-        <v>2</v>
-      </c>
-      <c r="N7" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="4">
+        <v>2</v>
+      </c>
+      <c r="G7" s="5">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+      <c r="I7" s="4">
+        <v>2</v>
+      </c>
+      <c r="J7" s="5">
+        <v>1</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0</v>
+      </c>
+      <c r="L7" s="4">
+        <v>1</v>
+      </c>
+      <c r="M7" s="5">
+        <v>2</v>
+      </c>
+      <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="P7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>0</v>
+      </c>
+      <c r="R7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="S7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="T7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L8" s="6">
-        <v>2</v>
-      </c>
-      <c r="M8" s="7">
-        <v>1</v>
-      </c>
-      <c r="N8" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0</v>
+      </c>
+      <c r="L8" s="4">
+        <v>2</v>
+      </c>
+      <c r="M8" s="5">
+        <v>1</v>
+      </c>
+      <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="P8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="S8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="T8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I9" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="J9" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L9" s="8">
-        <v>3</v>
-      </c>
-      <c r="M9" s="9">
-        <v>3</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C11">
+      <c r="B9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0</v>
+      </c>
+      <c r="L9" s="20">
+        <v>3</v>
+      </c>
+      <c r="M9" s="21">
+        <v>3</v>
+      </c>
+      <c r="N9" s="1">
+        <v>2</v>
+      </c>
+      <c r="O9" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R9" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="S9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="T9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="14">
         <v>5</v>
       </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>1</v>
-      </c>
+      <c r="D11" s="15">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="14">
+        <v>0</v>
+      </c>
+      <c r="G11" s="15">
+        <v>1</v>
+      </c>
+      <c r="H11" s="1"/>
+      <c r="I11" s="14">
+        <v>0</v>
+      </c>
+      <c r="J11" s="15">
+        <v>1</v>
+      </c>
+      <c r="K11" s="1"/>
+      <c r="L11" s="16">
+        <v>3</v>
+      </c>
+      <c r="M11" s="17">
+        <v>3</v>
+      </c>
+      <c r="N11" s="1"/>
+      <c r="O11" s="14">
+        <v>2</v>
+      </c>
+      <c r="P11" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="14">
+        <v>1</v>
+      </c>
+      <c r="S11" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I13" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="J13" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L13" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="M13" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="O13" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="P13" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R13" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="S13" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="T13" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="4">
+        <v>1</v>
+      </c>
+      <c r="D14" s="5">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0</v>
+      </c>
+      <c r="F14" s="22">
+        <v>2</v>
+      </c>
+      <c r="G14" s="23">
+        <v>0</v>
+      </c>
+      <c r="H14" s="1">
+        <v>2</v>
+      </c>
+      <c r="I14" s="18">
+        <v>0</v>
+      </c>
+      <c r="J14" s="19">
+        <v>2</v>
+      </c>
+      <c r="K14" s="1">
+        <v>1</v>
+      </c>
+      <c r="L14" s="4">
+        <v>2</v>
+      </c>
+      <c r="M14" s="5">
+        <v>1</v>
+      </c>
+      <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="4">
+        <v>2</v>
+      </c>
+      <c r="P14" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>0</v>
+      </c>
+      <c r="R14" s="4">
+        <v>1</v>
+      </c>
+      <c r="S14" s="5">
+        <v>1</v>
+      </c>
+      <c r="T14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="22">
+        <v>0</v>
+      </c>
+      <c r="D15" s="23">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1">
+        <v>2</v>
+      </c>
+      <c r="F15" s="4">
+        <v>0</v>
+      </c>
+      <c r="G15" s="5">
+        <v>2</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0</v>
+      </c>
+      <c r="I15" s="4">
+        <v>1</v>
+      </c>
+      <c r="J15" s="5">
+        <v>1</v>
+      </c>
+      <c r="K15" s="1">
+        <v>0</v>
+      </c>
+      <c r="L15" s="4">
+        <v>2</v>
+      </c>
+      <c r="M15" s="5">
+        <v>1</v>
+      </c>
+      <c r="N15" s="1">
+        <v>0</v>
+      </c>
+      <c r="O15" s="4">
+        <v>3</v>
+      </c>
+      <c r="P15" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>0</v>
+      </c>
+      <c r="R15" s="22">
+        <v>1</v>
+      </c>
+      <c r="S15" s="23">
+        <v>0</v>
+      </c>
+      <c r="T15" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="4">
+        <v>0</v>
+      </c>
+      <c r="D16" s="5">
+        <v>0</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0</v>
+      </c>
+      <c r="F16" s="18">
+        <v>1</v>
+      </c>
+      <c r="G16" s="19">
+        <v>0</v>
+      </c>
+      <c r="H16" s="1">
+        <v>1</v>
+      </c>
+      <c r="I16" s="18">
+        <v>0</v>
+      </c>
+      <c r="J16" s="19">
+        <v>2</v>
+      </c>
+      <c r="K16" s="1">
+        <v>1</v>
+      </c>
+      <c r="L16" s="4">
+        <v>2</v>
+      </c>
+      <c r="M16" s="5">
+        <v>1</v>
+      </c>
+      <c r="N16" s="1">
+        <v>0</v>
+      </c>
+      <c r="O16" s="4">
+        <v>2</v>
+      </c>
+      <c r="P16" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>0</v>
+      </c>
+      <c r="R16" s="22">
+        <v>1</v>
+      </c>
+      <c r="S16" s="23">
+        <v>0</v>
+      </c>
+      <c r="T16" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="22">
+        <v>0</v>
+      </c>
+      <c r="D17" s="23">
+        <v>1</v>
+      </c>
+      <c r="E17" s="1">
+        <v>2</v>
+      </c>
+      <c r="F17" s="18">
+        <v>1</v>
+      </c>
+      <c r="G17" s="19">
+        <v>0</v>
+      </c>
+      <c r="H17" s="1">
+        <v>1</v>
+      </c>
+      <c r="I17" s="4">
+        <v>2</v>
+      </c>
+      <c r="J17" s="5">
+        <v>1</v>
+      </c>
+      <c r="K17" s="1">
+        <v>0</v>
+      </c>
+      <c r="L17" s="4">
+        <v>2</v>
+      </c>
+      <c r="M17" s="5">
+        <v>0</v>
+      </c>
+      <c r="N17" s="1">
+        <v>0</v>
+      </c>
+      <c r="O17" s="4">
+        <v>3</v>
+      </c>
+      <c r="P17" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>0</v>
+      </c>
+      <c r="R17" s="22">
+        <v>1</v>
+      </c>
+      <c r="S17" s="23">
+        <v>0</v>
+      </c>
+      <c r="T17" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H18" s="1">
+        <v>0</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K18" s="1">
+        <v>0</v>
+      </c>
+      <c r="L18" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="M18" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="N18" s="1">
+        <v>0</v>
+      </c>
+      <c r="O18" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="P18" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>0</v>
+      </c>
+      <c r="R18" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="S18" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="T18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H19" s="1">
+        <v>0</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K19" s="1">
+        <v>0</v>
+      </c>
+      <c r="L19" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="M19" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="N19" s="1">
+        <v>0</v>
+      </c>
+      <c r="O19" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="P19" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>0</v>
+      </c>
+      <c r="R19" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="S19" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="T19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="6">
+        <v>2</v>
+      </c>
+      <c r="D20" s="7">
+        <v>1</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K20" s="1">
+        <v>0</v>
+      </c>
+      <c r="L20" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M20" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="N20" s="1">
+        <v>0</v>
+      </c>
+      <c r="O20" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>0</v>
+      </c>
+      <c r="R20" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="S20" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="T20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C22" s="14">
+        <v>0</v>
+      </c>
+      <c r="D22" s="15">
+        <v>1</v>
+      </c>
+      <c r="E22" s="1"/>
+      <c r="F22" s="14">
+        <v>2</v>
+      </c>
+      <c r="G22" s="15">
+        <v>0</v>
+      </c>
+      <c r="H22" s="1"/>
+      <c r="I22" s="14">
+        <v>0</v>
+      </c>
+      <c r="J22" s="15">
+        <v>1</v>
+      </c>
+      <c r="K22" s="1"/>
+      <c r="L22" s="14">
+        <v>0</v>
+      </c>
+      <c r="M22" s="15">
+        <v>1</v>
+      </c>
+      <c r="N22" s="1"/>
+      <c r="O22" s="14">
+        <v>1</v>
+      </c>
+      <c r="P22" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="14">
+        <v>1</v>
+      </c>
+      <c r="S22" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B24" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="G24" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I24" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="J24" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L24" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="M24" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="O24" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="P24" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q24" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R24" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="S24" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="T24" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="18">
+        <v>4</v>
+      </c>
+      <c r="D25" s="19">
+        <v>0</v>
+      </c>
+      <c r="E25" s="1">
+        <v>1</v>
+      </c>
+      <c r="F25" s="18">
+        <v>0</v>
+      </c>
+      <c r="G25" s="19">
+        <v>2</v>
+      </c>
+      <c r="H25" s="1">
+        <v>1</v>
+      </c>
+      <c r="I25" s="4">
+        <v>2</v>
+      </c>
+      <c r="J25" s="5">
+        <v>0</v>
+      </c>
+      <c r="K25" s="1">
+        <v>0</v>
+      </c>
+      <c r="L25" s="4">
+        <v>2</v>
+      </c>
+      <c r="M25" s="5">
+        <v>1</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O25" s="4">
+        <v>1</v>
+      </c>
+      <c r="P25" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R25" s="4">
+        <v>2</v>
+      </c>
+      <c r="S25" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="18">
+        <v>4</v>
+      </c>
+      <c r="D26" s="19">
+        <v>0</v>
+      </c>
+      <c r="E26" s="1">
+        <v>1</v>
+      </c>
+      <c r="F26" s="18">
+        <v>0</v>
+      </c>
+      <c r="G26" s="19">
+        <v>3</v>
+      </c>
+      <c r="H26" s="1">
+        <v>1</v>
+      </c>
+      <c r="I26" s="4">
+        <v>1</v>
+      </c>
+      <c r="J26" s="5">
+        <v>1</v>
+      </c>
+      <c r="K26" s="1">
+        <v>0</v>
+      </c>
+      <c r="L26" s="4">
+        <v>2</v>
+      </c>
+      <c r="M26" s="5">
+        <v>1</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O26" s="4">
+        <v>1</v>
+      </c>
+      <c r="P26" s="5">
+        <v>2</v>
+      </c>
+      <c r="Q26" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R26" s="4">
+        <v>2</v>
+      </c>
+      <c r="S26" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" s="18">
+        <v>2</v>
+      </c>
+      <c r="D27" s="19">
+        <v>0</v>
+      </c>
+      <c r="E27" s="1">
+        <v>1</v>
+      </c>
+      <c r="F27" s="18">
+        <v>0</v>
+      </c>
+      <c r="G27" s="19">
+        <v>2</v>
+      </c>
+      <c r="H27" s="1">
+        <v>1</v>
+      </c>
+      <c r="I27" s="4">
+        <v>2</v>
+      </c>
+      <c r="J27" s="5">
+        <v>0</v>
+      </c>
+      <c r="K27" s="1">
+        <v>0</v>
+      </c>
+      <c r="L27" s="4">
+        <v>2</v>
+      </c>
+      <c r="M27" s="5">
+        <v>1</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O27" s="4">
+        <v>1</v>
+      </c>
+      <c r="P27" s="5">
+        <v>2</v>
+      </c>
+      <c r="Q27" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R27" s="4">
+        <v>2</v>
+      </c>
+      <c r="S27" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" s="22">
+        <v>3</v>
+      </c>
+      <c r="D28" s="23">
+        <v>0</v>
+      </c>
+      <c r="E28" s="1">
+        <v>2</v>
+      </c>
+      <c r="F28" s="22">
+        <v>1</v>
+      </c>
+      <c r="G28" s="23">
+        <v>2</v>
+      </c>
+      <c r="H28" s="1">
+        <v>2</v>
+      </c>
+      <c r="I28" s="4">
+        <v>2</v>
+      </c>
+      <c r="J28" s="5">
+        <v>0</v>
+      </c>
+      <c r="K28" s="1">
+        <v>0</v>
+      </c>
+      <c r="L28" s="4">
+        <v>3</v>
+      </c>
+      <c r="M28" s="5">
+        <v>0</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O28" s="4">
+        <v>2</v>
+      </c>
+      <c r="P28" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q28" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R28" s="4">
+        <v>2</v>
+      </c>
+      <c r="S28" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" s="1">
+        <v>0</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H29" s="1">
+        <v>0</v>
+      </c>
+      <c r="I29" s="4">
+        <v>2</v>
+      </c>
+      <c r="J29" s="5">
+        <v>1</v>
+      </c>
+      <c r="K29" s="1">
+        <v>0</v>
+      </c>
+      <c r="L29" s="4">
+        <v>3</v>
+      </c>
+      <c r="M29" s="5">
+        <v>1</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O29" s="4">
+        <v>2</v>
+      </c>
+      <c r="P29" s="5">
+        <v>2</v>
+      </c>
+      <c r="Q29" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R29" s="4"/>
+      <c r="S29" s="5"/>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" s="1">
+        <v>0</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H30" s="1">
+        <v>0</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J30" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K30" s="1">
+        <v>0</v>
+      </c>
+      <c r="L30" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="M30" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="N30" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O30" s="4"/>
+      <c r="P30" s="5"/>
+      <c r="Q30" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R30" s="4"/>
+      <c r="S30" s="5"/>
+    </row>
+    <row r="31" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>15</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" s="1">
+        <v>0</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H31" s="1">
+        <v>0</v>
+      </c>
+      <c r="I31" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K31" s="1">
+        <v>0</v>
+      </c>
+      <c r="L31" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M31" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O31" s="6"/>
+      <c r="P31" s="7"/>
+      <c r="Q31" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R31" s="6"/>
+      <c r="S31" s="7"/>
+    </row>
+    <row r="32" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E32" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C33" s="14">
+        <v>3</v>
+      </c>
+      <c r="D33" s="15">
+        <v>0</v>
+      </c>
+      <c r="E33" s="1"/>
+      <c r="F33" s="14">
+        <v>1</v>
+      </c>
+      <c r="G33" s="15">
+        <v>2</v>
+      </c>
+      <c r="H33" s="1"/>
+      <c r="I33" s="14">
+        <v>1</v>
+      </c>
+      <c r="J33" s="15">
+        <v>2</v>
+      </c>
+      <c r="K33" s="1"/>
+      <c r="L33" s="14"/>
+      <c r="M33" s="15"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="14"/>
+      <c r="P33" s="15"/>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="14"/>
+      <c r="S33" s="15"/>
+    </row>
+    <row r="34" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B35" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G35" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I35" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="J35" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L35" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M35" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="N35" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="O35" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="P35" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q35" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R35" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="S35" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="T35" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>3</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C36" s="4">
+        <v>3</v>
+      </c>
+      <c r="D36" s="5">
+        <v>0</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F36" s="4">
+        <v>0</v>
+      </c>
+      <c r="G36" s="5">
+        <v>4</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I36" s="4">
+        <v>2</v>
+      </c>
+      <c r="J36" s="5">
+        <v>0</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L36" s="4">
+        <v>2</v>
+      </c>
+      <c r="M36" s="5">
+        <v>0</v>
+      </c>
+      <c r="N36" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O36" s="4">
+        <v>2</v>
+      </c>
+      <c r="P36" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q36" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R36" s="4">
+        <v>3</v>
+      </c>
+      <c r="S36" s="5">
+        <v>0</v>
+      </c>
+      <c r="T36" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>4</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C37" s="4">
+        <v>2</v>
+      </c>
+      <c r="D37" s="5">
+        <v>0</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F37" s="4">
+        <v>0</v>
+      </c>
+      <c r="G37" s="5">
+        <v>3</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I37" s="4">
+        <v>1</v>
+      </c>
+      <c r="J37" s="5">
+        <v>0</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L37" s="4">
+        <v>5</v>
+      </c>
+      <c r="M37" s="5">
+        <v>0</v>
+      </c>
+      <c r="N37" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O37" s="4">
+        <v>3</v>
+      </c>
+      <c r="P37" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R37" s="4">
+        <v>3</v>
+      </c>
+      <c r="S37" s="5">
+        <v>0</v>
+      </c>
+      <c r="T37" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>5</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C38" s="4">
+        <v>2</v>
+      </c>
+      <c r="D38" s="5">
+        <v>0</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F38" s="4">
+        <v>0</v>
+      </c>
+      <c r="G38" s="5">
+        <v>3</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I38" s="4">
+        <v>1</v>
+      </c>
+      <c r="J38" s="5">
+        <v>0</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L38" s="4">
+        <v>3</v>
+      </c>
+      <c r="M38" s="5">
+        <v>1</v>
+      </c>
+      <c r="N38" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O38" s="4">
+        <v>3</v>
+      </c>
+      <c r="P38" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q38" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R38" s="4">
+        <v>2</v>
+      </c>
+      <c r="S38" s="5">
+        <v>0</v>
+      </c>
+      <c r="T38" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>6</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C39" s="4">
+        <v>2</v>
+      </c>
+      <c r="D39" s="5">
+        <v>0</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F39" s="4">
+        <v>0</v>
+      </c>
+      <c r="G39" s="5">
+        <v>2</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I39" s="4">
+        <v>1</v>
+      </c>
+      <c r="J39" s="5">
+        <v>1</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L39" s="4">
+        <v>3</v>
+      </c>
+      <c r="M39" s="5">
+        <v>0</v>
+      </c>
+      <c r="N39" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O39" s="4">
+        <v>3</v>
+      </c>
+      <c r="P39" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q39" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R39" s="4">
+        <v>2</v>
+      </c>
+      <c r="S39" s="5">
+        <v>0</v>
+      </c>
+      <c r="T39" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>7</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C40" s="4"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F40" s="4"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I40" s="4"/>
+      <c r="J40" s="5"/>
+      <c r="K40" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L40" s="4"/>
+      <c r="M40" s="5"/>
+      <c r="N40" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O40" s="4"/>
+      <c r="P40" s="5"/>
+      <c r="Q40" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R40" s="4"/>
+      <c r="S40" s="5"/>
+      <c r="T40" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>8</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C41" s="4"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F41" s="4"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I41" s="4"/>
+      <c r="J41" s="5"/>
+      <c r="K41" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L41" s="4"/>
+      <c r="M41" s="5"/>
+      <c r="N41" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O41" s="4"/>
+      <c r="P41" s="5"/>
+      <c r="Q41" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R41" s="4"/>
+      <c r="S41" s="5"/>
+      <c r="T41" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>15</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C42" s="6"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F42" s="6"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I42" s="6"/>
+      <c r="J42" s="7"/>
+      <c r="K42" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L42" s="6"/>
+      <c r="M42" s="7"/>
+      <c r="N42" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O42" s="6"/>
+      <c r="P42" s="7"/>
+      <c r="Q42" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R42" s="6"/>
+      <c r="S42" s="7"/>
+      <c r="T42" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="44" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C44" s="14"/>
+      <c r="D44" s="15"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="14"/>
+      <c r="G44" s="15"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="14"/>
+      <c r="J44" s="15"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="14"/>
+      <c r="M44" s="15"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="14"/>
+      <c r="P44" s="15"/>
+      <c r="Q44" s="1"/>
+      <c r="R44" s="14"/>
+      <c r="S44" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:T1"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -891,7 +2717,7 @@
   <dimension ref="B2:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -912,7 +2738,8 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <f>SUM(Planilha1!H3,Planilha1!K3,Planilha1!N3,Planilha1!Q3,Planilha1!T3,Planilha1!E14,Planilha1!H14,Planilha1!K14,Planilha1!N14,Planilha1!Q14,Planilha1!E25,Planilha1!H25,Planilha1!K25)</f>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
@@ -920,7 +2747,8 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <f>SUM(Planilha1!H4,Planilha1!K4,Planilha1!N4,Planilha1!Q4,Planilha1!T4,Planilha1!E15,Planilha1!H15,Planilha1!K15,Planilha1!N15,Planilha1!Q15,Planilha1!T15,Planilha1!E26,Planilha1!H26,Planilha1!K26)</f>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
@@ -928,7 +2756,8 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <f>SUM(Planilha1!H5,Planilha1!K5,Planilha1!N5,Planilha1!Q5,Planilha1!T5,Planilha1!E16,Planilha1!H16,Planilha1!K16,Planilha1!N16,Planilha1!Q16,Planilha1!T16,Planilha1!E27,Planilha1!H27,Planilha1!K27)</f>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
@@ -936,7 +2765,8 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <f>SUM(Planilha1!H6,Planilha1!K6,Planilha1!N6,Planilha1!Q6,Planilha1!T6,Planilha1!E17,Planilha1!H17,Planilha1!K17,Planilha1!N17,Planilha1!Q17,Planilha1!T17,Planilha1!E28,Planilha1!H28,Planilha1!K28)</f>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
@@ -944,6 +2774,7 @@
         <v>7</v>
       </c>
       <c r="C7">
+        <f>SUM(Planilha1!H7,Planilha1!K7,Planilha1!N7,Planilha1!Q7,Planilha1!T7,Planilha1!E18,Planilha1!H18,Planilha1!K18,Planilha1!N18,Planilha1!Q18,Planilha1!T18,Planilha1!E29,Planilha1!H29,Planilha1!K29)</f>
         <v>0</v>
       </c>
     </row>
@@ -952,6 +2783,7 @@
         <v>8</v>
       </c>
       <c r="C8">
+        <f>SUM(Planilha1!H8,Planilha1!K8,Planilha1!N8,Planilha1!Q8,Planilha1!T8,Planilha1!E18,Planilha1!H18,Planilha1!K18,Planilha1!N18,Planilha1!Q18,Planilha1!T18,Planilha1!E30,Planilha1!H30,Planilha1!K30)</f>
         <v>0</v>
       </c>
     </row>
@@ -960,7 +2792,8 @@
         <v>15</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <f>SUM(Planilha1!H9,Planilha1!K9,Planilha1!N9,Planilha1!Q9,Planilha1!T9,Planilha1!E19,Planilha1!H19,Planilha1!K19,Planilha1!N19,Planilha1!Q19,Planilha1!T19,Planilha1!E31,Planilha1!H31,Planilha1!K31)</f>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
